--- a/sample data/Sample Supreme Products for the Week of September 15 2022 (Week 4 of FW22) - Sheets.xlsx
+++ b/sample data/Sample Supreme Products for the Week of September 15 2022 (Week 4 of FW22) - Sheets.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="371">
   <si>
     <t>Name</t>
   </si>
@@ -59,6 +59,9 @@
     <t>Colors</t>
   </si>
   <si>
+    <t>Sizes</t>
+  </si>
+  <si>
     <t>Backpack</t>
   </si>
   <si>
@@ -152,6 +155,9 @@
     <t>Black,Red,Silver,Olive</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Supreme®/Independent® Truck</t>
   </si>
   <si>
@@ -215,6 +221,18 @@
     <t xml:space="preserve">Green - 8.125" x 32" ,Black - 8.25" x 32" ,White - 8" x 31.875" </t>
   </si>
   <si>
+    <t>129,139,149</t>
+  </si>
+  <si>
+    <t>54MM</t>
+  </si>
+  <si>
+    <t>8 1/2</t>
+  </si>
+  <si>
+    <t>8 1/8</t>
+  </si>
+  <si>
     <t>Heavy Flannel Shirt</t>
   </si>
   <si>
@@ -275,6 +293,9 @@
     <t>Pink,Black,Rust</t>
   </si>
   <si>
+    <t>Small,Medium,Large,XLarge</t>
+  </si>
+  <si>
     <t>Supreme®/Nike® ACG Belted Denim Pant</t>
   </si>
   <si>
@@ -443,6 +464,12 @@
     <t>Washed Black</t>
   </si>
   <si>
+    <t>30,32,34,36,38</t>
+  </si>
+  <si>
+    <t>Small,Medium,Large,XLarge,XXL</t>
+  </si>
+  <si>
     <t>Supreme®/Nike® ACG Nylon Trail Short</t>
   </si>
   <si>
@@ -1008,6 +1035,9 @@
   </si>
   <si>
     <t>Brown,Yellow,Light Blue,Black,Olive</t>
+  </si>
+  <si>
+    <t>S/M,M/L</t>
   </si>
   <si>
     <t>Supreme®/Pat McGrath Labs &lt;br&gt;Nail Polish (Set of 3)</t>
@@ -1464,13 +1494,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1504,19 +1534,22 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>175303</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>158</v>
@@ -1531,27 +1564,30 @@
         <v>52</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>175260</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>148</v>
@@ -1566,27 +1602,30 @@
         <v>53</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>175327</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>148</v>
@@ -1601,27 +1640,30 @@
         <v>54</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>175331</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>54</v>
@@ -1636,27 +1678,30 @@
         <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>40</v>
+      </c>
+      <c r="L5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>175272</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>48</v>
@@ -1671,27 +1716,30 @@
         <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>175300</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>58</v>
@@ -1706,13 +1754,16 @@
         <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="L7" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1722,13 +1773,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1762,19 +1813,22 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="B2">
         <v>175360</v>
       </c>
       <c r="C2" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="D2" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="E2">
         <v>48</v>
@@ -1789,27 +1843,30 @@
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="J2" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="K2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>265</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="B3">
         <v>175355</v>
       </c>
       <c r="C3" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D3" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="E3">
         <v>48</v>
@@ -1824,27 +1881,30 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="J3" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="K3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>332</v>
+      </c>
+      <c r="L3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="B4">
         <v>175356</v>
       </c>
       <c r="C4" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="D4" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="E4">
         <v>54</v>
@@ -1859,27 +1919,30 @@
         <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="J4" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="K4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>333</v>
+      </c>
+      <c r="L4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B5">
         <v>175338</v>
       </c>
       <c r="C5" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="D5" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="E5">
         <v>58</v>
@@ -1894,27 +1957,30 @@
         <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="J5" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="K5" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>334</v>
+      </c>
+      <c r="L5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B6">
         <v>175298</v>
       </c>
       <c r="C6" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="D6" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="E6">
         <v>48</v>
@@ -1929,27 +1995,30 @@
         <v>50</v>
       </c>
       <c r="I6" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="J6" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="K6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>335</v>
+      </c>
+      <c r="L6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B7">
         <v>175322</v>
       </c>
       <c r="C7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="D7" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="E7">
         <v>38</v>
@@ -1964,13 +2033,16 @@
         <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="J7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="K7" t="s">
-        <v>327</v>
+        <v>336</v>
+      </c>
+      <c r="L7" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1980,13 +2052,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2020,19 +2092,22 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="B2">
         <v>175364</v>
       </c>
       <c r="C2" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="D2" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="E2">
         <v>98</v>
@@ -2047,27 +2122,30 @@
         <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="J2" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="K2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>300</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="B3">
         <v>175293</v>
       </c>
       <c r="C3" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="D3" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="E3">
         <v>58</v>
@@ -2082,27 +2160,30 @@
         <v>59</v>
       </c>
       <c r="I3" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="J3" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="K3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>367</v>
+      </c>
+      <c r="L3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="B4">
         <v>175320</v>
       </c>
       <c r="C4" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="D4" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -2117,27 +2198,30 @@
         <v>60</v>
       </c>
       <c r="I4" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="J4" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="K4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>368</v>
+      </c>
+      <c r="L4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="B5">
         <v>175292</v>
       </c>
       <c r="C5" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="D5" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="E5">
         <v>34</v>
@@ -2152,27 +2236,30 @@
         <v>61</v>
       </c>
       <c r="I5" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="J5" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="K5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>369</v>
+      </c>
+      <c r="L5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="B6">
         <v>175304</v>
       </c>
       <c r="C6" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="E6">
         <v>40</v>
@@ -2187,27 +2274,30 @@
         <v>62</v>
       </c>
       <c r="I6" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="J6" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="K6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>368</v>
+      </c>
+      <c r="L6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="B7">
         <v>175317</v>
       </c>
       <c r="C7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="D7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="E7">
         <v>32</v>
@@ -2222,27 +2312,30 @@
         <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="J7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="K7" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>370</v>
+      </c>
+      <c r="L7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="B8">
         <v>175289</v>
       </c>
       <c r="C8" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="D8" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="E8">
         <v>24</v>
@@ -2257,13 +2350,16 @@
         <v>64</v>
       </c>
       <c r="I8" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="J8" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="K8" t="s">
-        <v>358</v>
+        <v>368</v>
+      </c>
+      <c r="L8" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2273,13 +2369,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2313,19 +2409,22 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>175261</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E2">
         <v>60</v>
@@ -2340,27 +2439,30 @@
         <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>61</v>
+      </c>
+      <c r="L2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>175310</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E3">
         <v>36</v>
@@ -2375,27 +2477,30 @@
         <v>66</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>62</v>
+      </c>
+      <c r="L3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>175302</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E4">
         <v>58</v>
@@ -2410,27 +2515,30 @@
         <v>67</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>175313</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E5">
         <v>58</v>
@@ -2445,13 +2553,16 @@
         <v>68</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="L5" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2461,13 +2572,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2501,19 +2612,22 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B2">
         <v>175369</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E2">
         <v>158</v>
@@ -2528,27 +2642,30 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>85</v>
+      </c>
+      <c r="L2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B3">
         <v>175335</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E3">
         <v>148</v>
@@ -2563,27 +2680,30 @@
         <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>86</v>
+      </c>
+      <c r="L3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B4">
         <v>175309</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E4">
         <v>128</v>
@@ -2598,24 +2718,27 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>87</v>
+      </c>
+      <c r="L4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B5">
         <v>175314</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E5">
         <v>128</v>
@@ -2630,13 +2753,16 @@
         <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K5" t="s">
-        <v>82</v>
+        <v>88</v>
+      </c>
+      <c r="L5" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2646,13 +2772,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2686,19 +2812,22 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B2">
         <v>175361</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E2">
         <v>198</v>
@@ -2713,27 +2842,30 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="K2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>135</v>
+      </c>
+      <c r="L2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B3">
         <v>175368</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E3">
         <v>148</v>
@@ -2748,27 +2880,30 @@
         <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J3" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="K3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>136</v>
+      </c>
+      <c r="L3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B4">
         <v>175343</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E4">
         <v>178</v>
@@ -2783,27 +2918,30 @@
         <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>137</v>
+      </c>
+      <c r="L4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B5">
         <v>175291</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E5">
         <v>178</v>
@@ -2818,27 +2956,30 @@
         <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="K5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>138</v>
+      </c>
+      <c r="L5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B6">
         <v>175351</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E6">
         <v>138</v>
@@ -2853,27 +2994,30 @@
         <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J6" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="K6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="L6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B7">
         <v>175334</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E7">
         <v>168</v>
@@ -2888,27 +3032,30 @@
         <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="K7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>140</v>
+      </c>
+      <c r="L7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B8">
         <v>175297</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E8">
         <v>168</v>
@@ -2923,27 +3070,30 @@
         <v>41</v>
       </c>
       <c r="I8" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J8" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="K8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>141</v>
+      </c>
+      <c r="L8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B9">
         <v>175265</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E9">
         <v>158</v>
@@ -2958,27 +3108,30 @@
         <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J9" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="K9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>142</v>
+      </c>
+      <c r="L9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B10">
         <v>175267</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E10">
         <v>168</v>
@@ -2993,27 +3146,30 @@
         <v>43</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="K10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>143</v>
+      </c>
+      <c r="L10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B11">
         <v>175308</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E11">
         <v>178</v>
@@ -3028,27 +3184,30 @@
         <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="K11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>144</v>
+      </c>
+      <c r="L11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B12">
         <v>175285</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E12">
         <v>158</v>
@@ -3063,13 +3222,16 @@
         <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="K12" t="s">
-        <v>138</v>
+        <v>145</v>
+      </c>
+      <c r="L12" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3079,13 +3241,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3119,19 +3281,22 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B2">
         <v>175367</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E2">
         <v>138</v>
@@ -3146,27 +3311,30 @@
         <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="J2" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="K2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>157</v>
+      </c>
+      <c r="L2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B3">
         <v>175268</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E3">
         <v>118</v>
@@ -3181,13 +3349,16 @@
         <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="J3" t="s">
+        <v>156</v>
+      </c>
+      <c r="K3" t="s">
+        <v>158</v>
+      </c>
+      <c r="L3" t="s">
         <v>147</v>
-      </c>
-      <c r="K3" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3197,13 +3368,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3237,19 +3408,22 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B2">
         <v>175366</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="E2">
         <v>110</v>
@@ -3264,27 +3438,30 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="J2" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>204</v>
+      </c>
+      <c r="L2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B3">
         <v>175362</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E3">
         <v>48</v>
@@ -3299,27 +3476,30 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="J3" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="K3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>205</v>
+      </c>
+      <c r="L3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B4">
         <v>175354</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E4">
         <v>158</v>
@@ -3334,27 +3514,30 @@
         <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="J4" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="K4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>206</v>
+      </c>
+      <c r="L4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B5">
         <v>175357</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D5" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="E5">
         <v>98</v>
@@ -3369,27 +3552,30 @@
         <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="J5" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="K5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>207</v>
+      </c>
+      <c r="L5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B6">
         <v>175365</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D6" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="E6">
         <v>88</v>
@@ -3404,27 +3590,30 @@
         <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="J6" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="K6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>208</v>
+      </c>
+      <c r="L6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B7">
         <v>175321</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="E7">
         <v>198</v>
@@ -3439,27 +3628,30 @@
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="J7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="K7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>209</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B8">
         <v>175349</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D8" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="E8">
         <v>138</v>
@@ -3474,27 +3666,30 @@
         <v>26</v>
       </c>
       <c r="I8" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="J8" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="K8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>210</v>
+      </c>
+      <c r="L8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B9">
         <v>175277</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D9" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E9">
         <v>78</v>
@@ -3509,27 +3704,30 @@
         <v>27</v>
       </c>
       <c r="I9" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="J9" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="K9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>211</v>
+      </c>
+      <c r="L9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B10">
         <v>175333</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D10" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="E10">
         <v>98</v>
@@ -3544,27 +3742,30 @@
         <v>28</v>
       </c>
       <c r="I10" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="J10" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="K10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>212</v>
+      </c>
+      <c r="L10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B11">
         <v>175269</v>
       </c>
       <c r="C11" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D11" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="E11">
         <v>60</v>
@@ -3579,27 +3780,30 @@
         <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="J11" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>213</v>
+      </c>
+      <c r="L11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B12">
         <v>175346</v>
       </c>
       <c r="C12" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D12" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E12">
         <v>88</v>
@@ -3614,13 +3818,16 @@
         <v>30</v>
       </c>
       <c r="I12" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="J12" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="K12" t="s">
-        <v>205</v>
+        <v>214</v>
+      </c>
+      <c r="L12" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3630,13 +3837,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3670,19 +3877,22 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="B2">
         <v>175273</v>
       </c>
       <c r="C2" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="E2">
         <v>40</v>
@@ -3697,27 +3907,30 @@
         <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="J2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="K2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>235</v>
+      </c>
+      <c r="L2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B3">
         <v>175316</v>
       </c>
       <c r="C3" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="D3" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="E3">
         <v>40</v>
@@ -3732,27 +3945,30 @@
         <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="J3" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="K3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>236</v>
+      </c>
+      <c r="L3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B4">
         <v>175275</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D4" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="E4">
         <v>40</v>
@@ -3767,27 +3983,30 @@
         <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="J4" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="K4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>237</v>
+      </c>
+      <c r="L4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B5">
         <v>175311</v>
       </c>
       <c r="C5" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D5" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E5">
         <v>40</v>
@@ -3802,27 +4021,30 @@
         <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="J5" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="K5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>238</v>
+      </c>
+      <c r="L5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B6">
         <v>175305</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="D6" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="E6">
         <v>40</v>
@@ -3837,13 +4059,16 @@
         <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="J6" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="K6" t="s">
-        <v>230</v>
+        <v>239</v>
+      </c>
+      <c r="L6" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3853,13 +4078,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3893,19 +4118,22 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="B2">
         <v>175363</v>
       </c>
       <c r="C2" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="D2" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="E2">
         <v>298</v>
@@ -3920,27 +4148,30 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="J2" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="K2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>265</v>
+      </c>
+      <c r="L2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="B3">
         <v>175358</v>
       </c>
       <c r="C3" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="D3" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="E3">
         <v>238</v>
@@ -3955,27 +4186,30 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="J3" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="K3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>266</v>
+      </c>
+      <c r="L3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B4">
         <v>175279</v>
       </c>
       <c r="C4" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="D4" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E4">
         <v>198</v>
@@ -3990,27 +4224,30 @@
         <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="J4" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="K4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>267</v>
+      </c>
+      <c r="L4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="B5">
         <v>175345</v>
       </c>
       <c r="C5" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="D5" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="E5">
         <v>198</v>
@@ -4025,27 +4262,30 @@
         <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="J5" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="K5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>268</v>
+      </c>
+      <c r="L5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B6">
         <v>175312</v>
       </c>
       <c r="C6" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="D6" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E6">
         <v>498</v>
@@ -4060,27 +4300,30 @@
         <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="J6" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="K6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>269</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B7">
         <v>175353</v>
       </c>
       <c r="C7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="D7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="E7">
         <v>148</v>
@@ -4095,13 +4338,16 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="J7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="K7" t="s">
-        <v>261</v>
+        <v>270</v>
+      </c>
+      <c r="L7" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4111,13 +4357,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4151,19 +4397,22 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="B2">
         <v>175359</v>
       </c>
       <c r="C2" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="D2" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E2">
         <v>188</v>
@@ -4178,27 +4427,30 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="J2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="K2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>300</v>
+      </c>
+      <c r="L2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="B3">
         <v>175370</v>
       </c>
       <c r="C3" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="D3" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="E3">
         <v>158</v>
@@ -4213,27 +4465,30 @@
         <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="J3" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="K3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>301</v>
+      </c>
+      <c r="L3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="B4">
         <v>175296</v>
       </c>
       <c r="C4" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="D4" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="E4">
         <v>178</v>
@@ -4248,27 +4503,30 @@
         <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="J4" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="K4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>302</v>
+      </c>
+      <c r="L4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="B5">
         <v>175337</v>
       </c>
       <c r="C5" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="D5" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="E5">
         <v>158</v>
@@ -4283,27 +4541,30 @@
         <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="J5" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="K5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>303</v>
+      </c>
+      <c r="L5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B6">
         <v>175330</v>
       </c>
       <c r="C6" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="D6" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="E6">
         <v>138</v>
@@ -4318,27 +4579,30 @@
         <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="J6" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="K6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>304</v>
+      </c>
+      <c r="L6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="B7">
         <v>175280</v>
       </c>
       <c r="C7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="D7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="E7">
         <v>158</v>
@@ -4353,27 +4617,30 @@
         <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="J7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="K7" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>305</v>
+      </c>
+      <c r="L7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="B8">
         <v>175342</v>
       </c>
       <c r="C8" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="D8" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="E8">
         <v>178</v>
@@ -4388,13 +4655,16 @@
         <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="J8" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="K8" t="s">
-        <v>297</v>
+        <v>306</v>
+      </c>
+      <c r="L8" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
